--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-groups.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-groups.xlsx
@@ -487,10 +487,10 @@
     <t>(Citation: Microsoft Threat Actor Naming July 2023), (Citation: Mandiant FIN12 Oct 2021), (Citation: Secureworks Gold Blackburn Mar 2022), (Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: IBM X-Force ITG23 Oct 2021), (Citation: Microsoft Threat Actor Naming July 2023), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jeff Jones May 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Junnosuke Yagi March 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Dragos),</t>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: ICS-CERT October 2017),(Citation: Jeff Jones May 2018),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>,(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -505,7 +505,7 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Microsoft Ransomware as a Service),(Citation: FBI Flash FIN7 USB),,</t>
+    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Microsoft Ransomware as a Service),,</t>
   </si>
   <si>
     <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
@@ -514,19 +514,19 @@
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
-  </si>
-  <si>
-    <t>,(Citation: Dragos),(Citation: Eduard Kovacs May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: iSIGHT Sandworm 2014),(Citation: Secureworks IRON VIKING),(Citation: NCSC Sandworm Feb 2020),(Citation: Dragos Crashoverride 2018),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: F-Secure BlackEnergy 2014),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Secureworks IRON VIKING ),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Industroyer2 ESET April 2022),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Dragos Crashoverride 2017),(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Dragos October 2018),(Citation: Dragos Inc. June 2017),(Citation: Andy Greenberg June 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: CrowdStrike Ryuk January 2019),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),,</t>
+    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: Secureworks IRON VIKING ),(Citation: Industroyer2 ESET April 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: Dragos October 2018),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019),(Citation: Andy Greenberg June 2017),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk's Return October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-groups.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-groups.xlsx
@@ -487,10 +487,10 @@
     <t>(Citation: Microsoft Threat Actor Naming July 2023), (Citation: Mandiant FIN12 Oct 2021), (Citation: Secureworks Gold Blackburn Mar 2022), (Citation: CrowdStrike Ryuk January 2019)(Citation: CrowdStrike Grim Spider May 2019), (Citation: IBM X-Force ITG23 Oct 2021), (Citation: Microsoft Threat Actor Naming July 2023), (Citation: FireEye Ryuk and Trickbot January 2019), (Citation: FireEye KEGTAP SINGLEMALT October 2020)</t>
   </si>
   <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: ICS-CERT October 2017),(Citation: Jeff Jones May 2018),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>,(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Symantec March 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),</t>
+    <t>,(Citation: Jeff Jones May 2018),(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Andy Greenburg June 2019),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),(Citation: Symantec March 2019),(Citation: Dragos),</t>
   </si>
   <si>
     <t>(Citation: ESET Lazarus KillDisk April 2018),,</t>
@@ -505,7 +505,7 @@
     <t>(Citation: FireEye FIN6 Apr 2019),,</t>
   </si>
   <si>
-    <t>(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),(Citation: Microsoft Ransomware as a Service),,</t>
+    <t>(Citation: Microsoft Ransomware as a Service),(Citation: IBM Ransomware Trends September 2020),(Citation: FBI Flash FIN7 USB),(Citation: CrowdStrike Carbon Spider August 2021),,</t>
   </si>
   <si>
     <t>(Citation: Secureworks REvil September 2019),(Citation: Secureworks GandCrab and REvil September 2019),,</t>
@@ -514,19 +514,19 @@
     <t>,,</t>
   </si>
   <si>
-    <t>(Citation: FireEye APT38 Oct 2018),(Citation: FireEye WannaCry 2017),(Citation: LogRhythm WannaCry),(Citation: SecureWorks WannaCry Analysis),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>,(Citation: Eduard Kovacs May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos Crashoverride 2017),(Citation: Secureworks IRON VIKING),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: Secureworks IRON VIKING ),(Citation: Industroyer2 ESET April 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: iSIGHT Sandworm 2014),(Citation: F-Secure BlackEnergy 2014),(Citation: Dragos October 2018),(Citation: Dragos Inc. June 2017),(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019),(Citation: Andy Greenberg June 2017),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Xenotime 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: Chris Bing May 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),(Citation: Microsoft Ransomware as a Service),(Citation: DFIR Ryuk's Return October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: CrowdStrike Ryuk January 2019),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: FireEye KEGTAP SINGLEMALT October 2020),,</t>
+    <t>(Citation: SecureWorks WannaCry Analysis),(Citation: LogRhythm WannaCry),(Citation: FireEye WannaCry 2017),(Citation: FireEye APT38 Oct 2018),(Citation: Novetta Threat Research Group February 2016),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>,(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Eduard Kovacs May 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Secureworks IRON VIKING),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: UK NCSC Olympic Attacks October 2020),(Citation: Industroyer2 ESET April 2022),(Citation: NCSC Sandworm Feb 2020),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Trend Micro Cyclops Blink March 2022),(Citation: iSIGHT Sandworm 2014),(Citation: NCSC CISA Cyclops Blink Advisory February 2022),(Citation: Secureworks IRON VIKING ),(Citation: ESET Industroyer),(Citation: F-Secure BlackEnergy 2014),(Citation: Dragos Inc. June 2017),(Citation: ICS CERT September 2018),(Citation: ICS-CERT December 2014),(Citation: Dragos October 2018),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Xenotime 2018),(Citation: Chris Bing May 2018),(Citation: Dragos Threat Intelligence August 2019),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye KEGTAP SINGLEMALT October 2020),(Citation: Sophos New Ryuk Attack October 2020),(Citation: Microsoft Ransomware as a Service),(Citation: Red Canary Hospital Thwarted Ryuk October 2020),(Citation: DHS/CISA Ransomware Targeting Healthcare October 2020),(Citation: Mandiant FIN12 Oct 2021),(Citation: DFIR Ryuk's Return October 2020),(Citation: CrowdStrike Wizard Spider October 2020),(Citation: CrowdStrike Ryuk January 2019),(Citation: DFIR Ryuk in 5 Hours October 2020),(Citation: DFIR Ryuk 2 Hour Speed Run November 2020),,</t>
   </si>
   <si>
     <t>source ID</t>
@@ -2444,16 +2444,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2476,7 +2468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2484,35 +2476,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2815,43 +2789,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2868,7 +2842,7 @@
       <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F2" t="s">
@@ -2906,7 +2880,7 @@
       <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
@@ -2947,7 +2921,7 @@
       <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F4" t="s">
@@ -2988,7 +2962,7 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F5" t="s">
@@ -3026,7 +3000,7 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F6" t="s">
@@ -3067,7 +3041,7 @@
       <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F7" t="s">
@@ -3108,7 +3082,7 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -3149,7 +3123,7 @@
       <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F9" t="s">
@@ -3190,7 +3164,7 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F10" t="s">
@@ -3231,7 +3205,7 @@
       <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F11" t="s">
@@ -3272,7 +3246,7 @@
       <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F12" t="s">
@@ -3313,7 +3287,7 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F13" t="s">
@@ -3354,7 +3328,7 @@
       <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F14" t="s">
@@ -3395,7 +3369,7 @@
       <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F15" t="s">
@@ -3453,43 +3427,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4163,43 +4137,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5037,43 +5011,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5296,13 +5270,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5313,7 +5287,7 @@
       <c r="B2" t="s">
         <v>517</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5324,7 +5298,7 @@
       <c r="B3" t="s">
         <v>518</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -5335,7 +5309,7 @@
       <c r="B4" t="s">
         <v>519</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>666</v>
       </c>
     </row>
@@ -5346,7 +5320,7 @@
       <c r="B5" t="s">
         <v>520</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5357,7 +5331,7 @@
       <c r="B6" t="s">
         <v>521</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -5368,7 +5342,7 @@
       <c r="B7" t="s">
         <v>522</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -5379,7 +5353,7 @@
       <c r="B8" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>670</v>
       </c>
     </row>
@@ -5390,7 +5364,7 @@
       <c r="B9" t="s">
         <v>524</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>671</v>
       </c>
     </row>
@@ -5401,7 +5375,7 @@
       <c r="B10" t="s">
         <v>525</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>672</v>
       </c>
     </row>
@@ -5412,7 +5386,7 @@
       <c r="B11" t="s">
         <v>526</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>673</v>
       </c>
     </row>
@@ -5423,7 +5397,7 @@
       <c r="B12" t="s">
         <v>527</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>674</v>
       </c>
     </row>
@@ -5434,7 +5408,7 @@
       <c r="B13" t="s">
         <v>528</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -5445,7 +5419,7 @@
       <c r="B14" t="s">
         <v>529</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -5456,7 +5430,7 @@
       <c r="B15" t="s">
         <v>530</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>677</v>
       </c>
     </row>
@@ -5467,7 +5441,7 @@
       <c r="B16" t="s">
         <v>531</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -5478,7 +5452,7 @@
       <c r="B17" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>678</v>
       </c>
     </row>
@@ -5489,7 +5463,7 @@
       <c r="B18" t="s">
         <v>533</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>679</v>
       </c>
     </row>
@@ -5500,7 +5474,7 @@
       <c r="B19" t="s">
         <v>534</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>680</v>
       </c>
     </row>
@@ -5511,7 +5485,7 @@
       <c r="B20" t="s">
         <v>535</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>681</v>
       </c>
     </row>
@@ -5522,7 +5496,7 @@
       <c r="B21" t="s">
         <v>536</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>682</v>
       </c>
     </row>
@@ -5533,7 +5507,7 @@
       <c r="B22" t="s">
         <v>537</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>683</v>
       </c>
     </row>
@@ -5544,7 +5518,7 @@
       <c r="B23" t="s">
         <v>538</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>684</v>
       </c>
     </row>
@@ -5555,7 +5529,7 @@
       <c r="B24" t="s">
         <v>539</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>685</v>
       </c>
     </row>
@@ -5566,7 +5540,7 @@
       <c r="B25" t="s">
         <v>540</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>686</v>
       </c>
     </row>
@@ -5577,7 +5551,7 @@
       <c r="B26" t="s">
         <v>541</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>687</v>
       </c>
     </row>
@@ -5588,7 +5562,7 @@
       <c r="B27" t="s">
         <v>542</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>688</v>
       </c>
     </row>
@@ -5599,7 +5573,7 @@
       <c r="B28" t="s">
         <v>543</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>689</v>
       </c>
     </row>
@@ -5610,7 +5584,7 @@
       <c r="B29" t="s">
         <v>544</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>690</v>
       </c>
     </row>
@@ -5621,7 +5595,7 @@
       <c r="B30" t="s">
         <v>545</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -5632,7 +5606,7 @@
       <c r="B31" t="s">
         <v>546</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>692</v>
       </c>
     </row>
@@ -5643,7 +5617,7 @@
       <c r="B32" t="s">
         <v>547</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>693</v>
       </c>
     </row>
@@ -5654,7 +5628,7 @@
       <c r="B33" t="s">
         <v>548</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>694</v>
       </c>
     </row>
@@ -5665,7 +5639,7 @@
       <c r="B34" t="s">
         <v>549</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>695</v>
       </c>
     </row>
@@ -5676,7 +5650,7 @@
       <c r="B35" t="s">
         <v>550</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>696</v>
       </c>
     </row>
@@ -5687,7 +5661,7 @@
       <c r="B36" t="s">
         <v>551</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -5698,7 +5672,7 @@
       <c r="B37" t="s">
         <v>552</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>698</v>
       </c>
     </row>
@@ -5709,7 +5683,7 @@
       <c r="B38" t="s">
         <v>553</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>699</v>
       </c>
     </row>
@@ -5720,7 +5694,7 @@
       <c r="B39" t="s">
         <v>554</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>700</v>
       </c>
     </row>
@@ -5731,7 +5705,7 @@
       <c r="B40" t="s">
         <v>555</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>701</v>
       </c>
     </row>
@@ -5742,7 +5716,7 @@
       <c r="B41" t="s">
         <v>556</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>702</v>
       </c>
     </row>
@@ -5753,7 +5727,7 @@
       <c r="B42" t="s">
         <v>557</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>703</v>
       </c>
     </row>
@@ -5764,7 +5738,7 @@
       <c r="B43" t="s">
         <v>558</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>704</v>
       </c>
     </row>
@@ -5775,7 +5749,7 @@
       <c r="B44" t="s">
         <v>559</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -5786,7 +5760,7 @@
       <c r="B45" t="s">
         <v>560</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>706</v>
       </c>
     </row>
@@ -5797,7 +5771,7 @@
       <c r="B46" t="s">
         <v>561</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>707</v>
       </c>
     </row>
@@ -5808,7 +5782,7 @@
       <c r="B47" t="s">
         <v>562</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>708</v>
       </c>
     </row>
@@ -5819,7 +5793,7 @@
       <c r="B48" t="s">
         <v>563</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>709</v>
       </c>
     </row>
@@ -5830,7 +5804,7 @@
       <c r="B49" t="s">
         <v>564</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>710</v>
       </c>
     </row>
@@ -5841,7 +5815,7 @@
       <c r="B50" t="s">
         <v>565</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>711</v>
       </c>
     </row>
@@ -5852,7 +5826,7 @@
       <c r="B51" t="s">
         <v>566</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>712</v>
       </c>
     </row>
@@ -5863,7 +5837,7 @@
       <c r="B52" t="s">
         <v>567</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>713</v>
       </c>
     </row>
@@ -5874,7 +5848,7 @@
       <c r="B53" t="s">
         <v>568</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>714</v>
       </c>
     </row>
@@ -5885,7 +5859,7 @@
       <c r="B54" t="s">
         <v>569</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>715</v>
       </c>
     </row>
@@ -5896,7 +5870,7 @@
       <c r="B55" t="s">
         <v>569</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>715</v>
       </c>
     </row>
@@ -5907,7 +5881,7 @@
       <c r="B56" t="s">
         <v>570</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -5918,7 +5892,7 @@
       <c r="B57" t="s">
         <v>571</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>717</v>
       </c>
     </row>
@@ -5929,7 +5903,7 @@
       <c r="B58" t="s">
         <v>572</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>718</v>
       </c>
     </row>
@@ -5940,7 +5914,7 @@
       <c r="B59" t="s">
         <v>573</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -5951,7 +5925,7 @@
       <c r="B60" t="s">
         <v>574</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>720</v>
       </c>
     </row>
@@ -5962,7 +5936,7 @@
       <c r="B61" t="s">
         <v>575</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>721</v>
       </c>
     </row>
@@ -5973,7 +5947,7 @@
       <c r="B62" t="s">
         <v>576</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>722</v>
       </c>
     </row>
@@ -5984,7 +5958,7 @@
       <c r="B63" t="s">
         <v>577</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>723</v>
       </c>
     </row>
@@ -5995,7 +5969,7 @@
       <c r="B64" t="s">
         <v>578</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>724</v>
       </c>
     </row>
@@ -6006,7 +5980,7 @@
       <c r="B65" t="s">
         <v>579</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>725</v>
       </c>
     </row>
@@ -6017,7 +5991,7 @@
       <c r="B66" t="s">
         <v>580</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>726</v>
       </c>
     </row>
@@ -6028,7 +6002,7 @@
       <c r="B67" t="s">
         <v>581</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>727</v>
       </c>
     </row>
@@ -6039,7 +6013,7 @@
       <c r="B68" t="s">
         <v>582</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>728</v>
       </c>
     </row>
@@ -6050,7 +6024,7 @@
       <c r="B69" t="s">
         <v>583</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>729</v>
       </c>
     </row>
@@ -6061,7 +6035,7 @@
       <c r="B70" t="s">
         <v>584</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6072,7 +6046,7 @@
       <c r="B71" t="s">
         <v>585</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>731</v>
       </c>
     </row>
@@ -6083,7 +6057,7 @@
       <c r="B72" t="s">
         <v>586</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>732</v>
       </c>
     </row>
@@ -6094,7 +6068,7 @@
       <c r="B73" t="s">
         <v>587</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>733</v>
       </c>
     </row>
@@ -6105,7 +6079,7 @@
       <c r="B74" t="s">
         <v>588</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>734</v>
       </c>
     </row>
@@ -6116,7 +6090,7 @@
       <c r="B75" t="s">
         <v>548</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>694</v>
       </c>
     </row>
@@ -6127,7 +6101,7 @@
       <c r="B76" t="s">
         <v>589</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>735</v>
       </c>
     </row>
@@ -6138,7 +6112,7 @@
       <c r="B77" t="s">
         <v>572</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>718</v>
       </c>
     </row>
@@ -6149,7 +6123,7 @@
       <c r="B78" t="s">
         <v>590</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>736</v>
       </c>
     </row>
@@ -6160,7 +6134,7 @@
       <c r="B79" t="s">
         <v>591</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>737</v>
       </c>
     </row>
@@ -6171,7 +6145,7 @@
       <c r="B80" t="s">
         <v>592</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>738</v>
       </c>
     </row>
@@ -6182,7 +6156,7 @@
       <c r="B81" t="s">
         <v>593</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>739</v>
       </c>
     </row>
@@ -6193,7 +6167,7 @@
       <c r="B82" t="s">
         <v>594</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>740</v>
       </c>
     </row>
@@ -6204,7 +6178,7 @@
       <c r="B83" t="s">
         <v>595</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>741</v>
       </c>
     </row>
@@ -6215,7 +6189,7 @@
       <c r="B84" t="s">
         <v>596</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>742</v>
       </c>
     </row>
@@ -6226,7 +6200,7 @@
       <c r="B85" t="s">
         <v>597</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>743</v>
       </c>
     </row>
@@ -6237,7 +6211,7 @@
       <c r="B86" t="s">
         <v>598</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>744</v>
       </c>
     </row>
@@ -6248,7 +6222,7 @@
       <c r="B87" t="s">
         <v>599</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>700</v>
       </c>
     </row>
@@ -6259,7 +6233,7 @@
       <c r="B88" t="s">
         <v>600</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -6270,7 +6244,7 @@
       <c r="B89" t="s">
         <v>528</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -6281,7 +6255,7 @@
       <c r="B90" t="s">
         <v>601</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>745</v>
       </c>
     </row>
@@ -6292,7 +6266,7 @@
       <c r="B91" t="s">
         <v>602</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>746</v>
       </c>
     </row>
@@ -6303,7 +6277,7 @@
       <c r="B92" t="s">
         <v>603</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>747</v>
       </c>
     </row>
@@ -6314,7 +6288,7 @@
       <c r="B93" t="s">
         <v>540</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>686</v>
       </c>
     </row>
@@ -6325,7 +6299,7 @@
       <c r="B94" t="s">
         <v>578</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>724</v>
       </c>
     </row>
@@ -6336,7 +6310,7 @@
       <c r="B95" t="s">
         <v>604</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>748</v>
       </c>
     </row>
@@ -6347,7 +6321,7 @@
       <c r="B96" t="s">
         <v>605</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>749</v>
       </c>
     </row>
@@ -6358,7 +6332,7 @@
       <c r="B97" t="s">
         <v>606</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>750</v>
       </c>
     </row>
@@ -6369,7 +6343,7 @@
       <c r="B98" t="s">
         <v>563</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>709</v>
       </c>
     </row>
@@ -6380,7 +6354,7 @@
       <c r="B99" t="s">
         <v>607</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>751</v>
       </c>
     </row>
@@ -6391,7 +6365,7 @@
       <c r="B100" t="s">
         <v>579</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>725</v>
       </c>
     </row>
@@ -6402,7 +6376,7 @@
       <c r="B101" t="s">
         <v>577</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>723</v>
       </c>
     </row>
@@ -6413,7 +6387,7 @@
       <c r="B102" t="s">
         <v>569</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6424,7 +6398,7 @@
       <c r="B103" t="s">
         <v>576</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>722</v>
       </c>
     </row>
@@ -6435,7 +6409,7 @@
       <c r="B104" t="s">
         <v>608</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>752</v>
       </c>
     </row>
@@ -6446,7 +6420,7 @@
       <c r="B105" t="s">
         <v>609</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -6457,7 +6431,7 @@
       <c r="B106" t="s">
         <v>610</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>754</v>
       </c>
     </row>
@@ -6468,7 +6442,7 @@
       <c r="B107" t="s">
         <v>611</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>755</v>
       </c>
     </row>
@@ -6479,7 +6453,7 @@
       <c r="B108" t="s">
         <v>612</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>756</v>
       </c>
     </row>
@@ -6490,7 +6464,7 @@
       <c r="B109" t="s">
         <v>613</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>757</v>
       </c>
     </row>
@@ -6509,7 +6483,7 @@
       <c r="B111" t="s">
         <v>615</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>758</v>
       </c>
     </row>
@@ -6520,7 +6494,7 @@
       <c r="B112" t="s">
         <v>616</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>759</v>
       </c>
     </row>
@@ -6531,7 +6505,7 @@
       <c r="B113" t="s">
         <v>617</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>760</v>
       </c>
     </row>
@@ -6542,7 +6516,7 @@
       <c r="B114" t="s">
         <v>618</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>761</v>
       </c>
     </row>
@@ -6553,7 +6527,7 @@
       <c r="B115" t="s">
         <v>619</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6564,7 +6538,7 @@
       <c r="B116" t="s">
         <v>620</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>763</v>
       </c>
     </row>
@@ -6575,7 +6549,7 @@
       <c r="B117" t="s">
         <v>621</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>764</v>
       </c>
     </row>
@@ -6586,7 +6560,7 @@
       <c r="B118" t="s">
         <v>622</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>765</v>
       </c>
     </row>
@@ -6597,7 +6571,7 @@
       <c r="B119" t="s">
         <v>623</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>766</v>
       </c>
     </row>
@@ -6608,7 +6582,7 @@
       <c r="B120" t="s">
         <v>624</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -6619,7 +6593,7 @@
       <c r="B121" t="s">
         <v>625</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>768</v>
       </c>
     </row>
@@ -6630,7 +6604,7 @@
       <c r="B122" t="s">
         <v>626</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>769</v>
       </c>
     </row>
@@ -6641,7 +6615,7 @@
       <c r="B123" t="s">
         <v>627</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>770</v>
       </c>
     </row>
@@ -6652,7 +6626,7 @@
       <c r="B124" t="s">
         <v>628</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>771</v>
       </c>
     </row>
@@ -6663,7 +6637,7 @@
       <c r="B125" t="s">
         <v>629</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>772</v>
       </c>
     </row>
@@ -6674,7 +6648,7 @@
       <c r="B126" t="s">
         <v>630</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>773</v>
       </c>
     </row>
@@ -6685,7 +6659,7 @@
       <c r="B127" t="s">
         <v>631</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>774</v>
       </c>
     </row>
@@ -6704,7 +6678,7 @@
       <c r="B129" t="s">
         <v>633</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>775</v>
       </c>
     </row>
@@ -6715,7 +6689,7 @@
       <c r="B130" t="s">
         <v>634</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>776</v>
       </c>
     </row>
@@ -6726,7 +6700,7 @@
       <c r="B131" t="s">
         <v>635</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>777</v>
       </c>
     </row>
@@ -6737,7 +6711,7 @@
       <c r="B132" t="s">
         <v>636</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>778</v>
       </c>
     </row>
@@ -6748,7 +6722,7 @@
       <c r="B133" t="s">
         <v>637</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>779</v>
       </c>
     </row>
@@ -6759,7 +6733,7 @@
       <c r="B134" t="s">
         <v>638</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>780</v>
       </c>
     </row>
@@ -6770,7 +6744,7 @@
       <c r="B135" t="s">
         <v>639</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>781</v>
       </c>
     </row>
@@ -6781,7 +6755,7 @@
       <c r="B136" t="s">
         <v>640</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>782</v>
       </c>
     </row>
@@ -6792,7 +6766,7 @@
       <c r="B137" t="s">
         <v>641</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>783</v>
       </c>
     </row>
@@ -6803,7 +6777,7 @@
       <c r="B138" t="s">
         <v>642</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>784</v>
       </c>
     </row>
@@ -6822,7 +6796,7 @@
       <c r="B140" t="s">
         <v>521</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -6833,7 +6807,7 @@
       <c r="B141" t="s">
         <v>561</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>707</v>
       </c>
     </row>
@@ -6844,7 +6818,7 @@
       <c r="B142" t="s">
         <v>644</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>785</v>
       </c>
     </row>
@@ -6855,7 +6829,7 @@
       <c r="B143" t="s">
         <v>549</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>695</v>
       </c>
     </row>
@@ -6866,7 +6840,7 @@
       <c r="B144" t="s">
         <v>527</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>674</v>
       </c>
     </row>
@@ -6877,7 +6851,7 @@
       <c r="B145" t="s">
         <v>645</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>786</v>
       </c>
     </row>
@@ -6888,7 +6862,7 @@
       <c r="B146" t="s">
         <v>522</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -6899,7 +6873,7 @@
       <c r="B147" t="s">
         <v>646</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>787</v>
       </c>
     </row>
@@ -6910,7 +6884,7 @@
       <c r="B148" t="s">
         <v>544</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>690</v>
       </c>
     </row>
@@ -6921,7 +6895,7 @@
       <c r="B149" t="s">
         <v>523</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>670</v>
       </c>
     </row>
@@ -6932,7 +6906,7 @@
       <c r="B150" t="s">
         <v>647</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>788</v>
       </c>
     </row>
@@ -6943,7 +6917,7 @@
       <c r="B151" t="s">
         <v>559</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -6954,7 +6928,7 @@
       <c r="B152" t="s">
         <v>648</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>789</v>
       </c>
     </row>
@@ -6965,7 +6939,7 @@
       <c r="B153" t="s">
         <v>534</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>680</v>
       </c>
     </row>
@@ -6976,7 +6950,7 @@
       <c r="B154" t="s">
         <v>545</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -6987,7 +6961,7 @@
       <c r="B155" t="s">
         <v>649</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>790</v>
       </c>
     </row>
@@ -6998,7 +6972,7 @@
       <c r="B156" t="s">
         <v>650</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>791</v>
       </c>
     </row>
@@ -7009,7 +6983,7 @@
       <c r="B157" t="s">
         <v>651</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>792</v>
       </c>
     </row>
@@ -7028,7 +7002,7 @@
       <c r="B159" t="s">
         <v>652</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>793</v>
       </c>
     </row>
@@ -7039,7 +7013,7 @@
       <c r="B160" t="s">
         <v>653</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7050,7 +7024,7 @@
       <c r="B161" t="s">
         <v>543</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>689</v>
       </c>
     </row>
@@ -7061,7 +7035,7 @@
       <c r="B162" t="s">
         <v>654</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>795</v>
       </c>
     </row>
@@ -7072,7 +7046,7 @@
       <c r="B163" t="s">
         <v>655</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>796</v>
       </c>
     </row>
@@ -7083,7 +7057,7 @@
       <c r="B164" t="s">
         <v>570</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -7094,7 +7068,7 @@
       <c r="B165" t="s">
         <v>656</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>797</v>
       </c>
     </row>
@@ -7105,7 +7079,7 @@
       <c r="B166" t="s">
         <v>568</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>714</v>
       </c>
     </row>
@@ -7116,7 +7090,7 @@
       <c r="B167" t="s">
         <v>657</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7127,7 +7101,7 @@
       <c r="B168" t="s">
         <v>658</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>799</v>
       </c>
     </row>
@@ -7138,7 +7112,7 @@
       <c r="B169" t="s">
         <v>659</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>800</v>
       </c>
     </row>
@@ -7149,7 +7123,7 @@
       <c r="B170" t="s">
         <v>660</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>801</v>
       </c>
     </row>
@@ -7160,7 +7134,7 @@
       <c r="B171" t="s">
         <v>542</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>688</v>
       </c>
     </row>
@@ -7171,7 +7145,7 @@
       <c r="B172" t="s">
         <v>661</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>802</v>
       </c>
     </row>
@@ -7182,7 +7156,7 @@
       <c r="B173" t="s">
         <v>662</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>803</v>
       </c>
     </row>
@@ -7193,7 +7167,7 @@
       <c r="B174" t="s">
         <v>663</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>804</v>
       </c>
     </row>
@@ -7212,7 +7186,7 @@
       <c r="B176" t="s">
         <v>519</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>666</v>
       </c>
     </row>
